--- a/data/processed/basaltic_glasses/calczaf_files/Edi06/calczaf_outputs.xlsx
+++ b/data/processed/basaltic_glasses/calczaf_files/Edi06/calczaf_outputs.xlsx
@@ -2294,31 +2294,31 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="C10">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="D10">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="E10">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="F10">
-        <v>-0.008999999999999999</v>
+        <v>-0.007</v>
       </c>
       <c r="G10">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H10">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="I10">
-        <v>-0.008999999999999999</v>
+        <v>-0.007</v>
       </c>
       <c r="J10">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2486,31 +2486,31 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>99.664</v>
+        <v>99.66500000000001</v>
       </c>
       <c r="C16">
-        <v>99.678</v>
+        <v>99.68000000000001</v>
       </c>
       <c r="D16">
         <v>99.676</v>
       </c>
       <c r="E16">
-        <v>99.69199999999999</v>
+        <v>99.696</v>
       </c>
       <c r="F16">
-        <v>99.655</v>
+        <v>99.657</v>
       </c>
       <c r="G16">
-        <v>99.673</v>
+        <v>99.675</v>
       </c>
       <c r="H16">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="I16">
-        <v>99.655</v>
+        <v>99.657</v>
       </c>
       <c r="J16">
-        <v>99.69199999999999</v>
+        <v>99.696</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2806,31 +2806,31 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="C27">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="D27">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="E27">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="F27">
-        <v>-0.008999999999999999</v>
+        <v>-0.007</v>
       </c>
       <c r="G27">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H27">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="I27">
-        <v>-0.008999999999999999</v>
+        <v>-0.007</v>
       </c>
       <c r="J27">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2966,31 +2966,31 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>99.663</v>
+        <v>99.664</v>
       </c>
       <c r="C32">
-        <v>99.678</v>
+        <v>99.679</v>
       </c>
       <c r="D32">
         <v>99.675</v>
       </c>
       <c r="E32">
-        <v>99.69199999999999</v>
+        <v>99.69499999999999</v>
       </c>
       <c r="F32">
-        <v>99.654</v>
+        <v>99.65600000000001</v>
       </c>
       <c r="G32">
-        <v>99.672</v>
+        <v>99.67400000000001</v>
       </c>
       <c r="H32">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="I32">
-        <v>99.654</v>
+        <v>99.65600000000001</v>
       </c>
       <c r="J32">
-        <v>99.69199999999999</v>
+        <v>99.69499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3039,22 +3039,22 @@
         <v>18.035</v>
       </c>
       <c r="E35">
-        <v>18.03</v>
+        <v>18.029</v>
       </c>
       <c r="F35">
-        <v>18.041</v>
+        <v>18.04</v>
       </c>
       <c r="G35">
-        <v>18.036</v>
+        <v>18.035</v>
       </c>
       <c r="H35">
         <v>0.004</v>
       </c>
       <c r="I35">
-        <v>18.03</v>
+        <v>18.029</v>
       </c>
       <c r="J35">
-        <v>18.041</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3062,7 +3062,7 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>6.276</v>
+        <v>6.275</v>
       </c>
       <c r="C36">
         <v>6.274</v>
@@ -3071,19 +3071,19 @@
         <v>6.274</v>
       </c>
       <c r="E36">
-        <v>6.273</v>
+        <v>6.272</v>
       </c>
       <c r="F36">
         <v>6.276</v>
       </c>
       <c r="G36">
-        <v>6.275</v>
+        <v>6.274</v>
       </c>
       <c r="H36">
         <v>0.001</v>
       </c>
       <c r="I36">
-        <v>6.273</v>
+        <v>6.272</v>
       </c>
       <c r="J36">
         <v>6.276</v>
@@ -3106,7 +3106,7 @@
         <v>5.805</v>
       </c>
       <c r="F37">
-        <v>5.809</v>
+        <v>5.808</v>
       </c>
       <c r="G37">
         <v>5.807</v>
@@ -3118,7 +3118,7 @@
         <v>5.805</v>
       </c>
       <c r="J37">
-        <v>5.809</v>
+        <v>5.808</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3129,13 +3129,13 @@
         <v>5.054</v>
       </c>
       <c r="C38">
-        <v>5.053</v>
+        <v>5.052</v>
       </c>
       <c r="D38">
         <v>5.053</v>
       </c>
       <c r="E38">
-        <v>5.052</v>
+        <v>5.051</v>
       </c>
       <c r="F38">
         <v>5.054</v>
@@ -3147,7 +3147,7 @@
         <v>0.001</v>
       </c>
       <c r="I38">
-        <v>5.052</v>
+        <v>5.051</v>
       </c>
       <c r="J38">
         <v>5.054</v>
@@ -3286,31 +3286,31 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C43">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="D43">
         <v>0.018</v>
       </c>
       <c r="E43">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="F43">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="G43">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="H43">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="I43">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="J43">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3446,31 +3446,31 @@
         <v>18</v>
       </c>
       <c r="B48">
-        <v>60.891</v>
+        <v>60.89</v>
       </c>
       <c r="C48">
-        <v>60.878</v>
+        <v>60.876</v>
       </c>
       <c r="D48">
         <v>60.88</v>
       </c>
       <c r="E48">
-        <v>60.864</v>
+        <v>60.861</v>
       </c>
       <c r="F48">
-        <v>60.9</v>
+        <v>60.898</v>
       </c>
       <c r="G48">
-        <v>60.883</v>
+        <v>60.881</v>
       </c>
       <c r="H48">
         <v>0.014</v>
       </c>
       <c r="I48">
-        <v>60.864</v>
+        <v>60.861</v>
       </c>
       <c r="J48">
-        <v>60.9</v>
+        <v>60.898</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3490,7 +3490,7 @@
         <v>100</v>
       </c>
       <c r="F49">
-        <v>100.001</v>
+        <v>100</v>
       </c>
       <c r="G49">
         <v>100</v>
@@ -3502,7 +3502,7 @@
         <v>100</v>
       </c>
       <c r="J49">
-        <v>100.001</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3814,31 +3814,31 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="C10">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="D10">
         <v>0.014</v>
       </c>
       <c r="E10">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="F10">
-        <v>-0.011</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="G10">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="H10">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="I10">
-        <v>-0.011</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="J10">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4006,31 +4006,31 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>99.664</v>
+        <v>99.66500000000001</v>
       </c>
       <c r="C16">
-        <v>99.681</v>
+        <v>99.68300000000001</v>
       </c>
       <c r="D16">
         <v>99.678</v>
       </c>
       <c r="E16">
-        <v>99.69799999999999</v>
+        <v>99.702</v>
       </c>
       <c r="F16">
-        <v>99.65300000000001</v>
+        <v>99.655</v>
       </c>
       <c r="G16">
-        <v>99.675</v>
+        <v>99.67700000000001</v>
       </c>
       <c r="H16">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="I16">
-        <v>99.65300000000001</v>
+        <v>99.655</v>
       </c>
       <c r="J16">
-        <v>99.69799999999999</v>
+        <v>99.702</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4326,31 +4326,31 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="C27">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="D27">
         <v>0.014</v>
       </c>
       <c r="E27">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="F27">
-        <v>-0.011</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="G27">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="H27">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="I27">
-        <v>-0.011</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="J27">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -4486,31 +4486,31 @@
         <v>19</v>
       </c>
       <c r="B32">
-        <v>99.663</v>
+        <v>99.664</v>
       </c>
       <c r="C32">
-        <v>99.68000000000001</v>
+        <v>99.68300000000001</v>
       </c>
       <c r="D32">
         <v>99.67700000000001</v>
       </c>
       <c r="E32">
-        <v>99.697</v>
+        <v>99.702</v>
       </c>
       <c r="F32">
-        <v>99.652</v>
+        <v>99.655</v>
       </c>
       <c r="G32">
-        <v>99.67400000000001</v>
+        <v>99.676</v>
       </c>
       <c r="H32">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="I32">
-        <v>99.652</v>
+        <v>99.655</v>
       </c>
       <c r="J32">
-        <v>99.697</v>
+        <v>99.702</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -4559,7 +4559,7 @@
         <v>18.034</v>
       </c>
       <c r="E35">
-        <v>18.029</v>
+        <v>18.027</v>
       </c>
       <c r="F35">
         <v>18.041</v>
@@ -4571,7 +4571,7 @@
         <v>0.005</v>
       </c>
       <c r="I35">
-        <v>18.029</v>
+        <v>18.027</v>
       </c>
       <c r="J35">
         <v>18.041</v>
@@ -4582,7 +4582,7 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <v>6.276</v>
+        <v>6.275</v>
       </c>
       <c r="C36">
         <v>6.274</v>
@@ -4594,7 +4594,7 @@
         <v>6.272</v>
       </c>
       <c r="F36">
-        <v>6.277</v>
+        <v>6.276</v>
       </c>
       <c r="G36">
         <v>6.274</v>
@@ -4606,7 +4606,7 @@
         <v>6.272</v>
       </c>
       <c r="J36">
-        <v>6.277</v>
+        <v>6.276</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -4623,7 +4623,7 @@
         <v>5.806</v>
       </c>
       <c r="E37">
-        <v>5.805</v>
+        <v>5.804</v>
       </c>
       <c r="F37">
         <v>5.809</v>
@@ -4635,7 +4635,7 @@
         <v>0.002</v>
       </c>
       <c r="I37">
-        <v>5.805</v>
+        <v>5.804</v>
       </c>
       <c r="J37">
         <v>5.809</v>
@@ -4658,7 +4658,7 @@
         <v>5.051</v>
       </c>
       <c r="F38">
-        <v>5.055</v>
+        <v>5.054</v>
       </c>
       <c r="G38">
         <v>5.053</v>
@@ -4670,7 +4670,7 @@
         <v>5.051</v>
       </c>
       <c r="J38">
-        <v>5.055</v>
+        <v>5.054</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -4806,31 +4806,31 @@
         <v>13</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C43">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="D43">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="E43">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="F43">
-        <v>-0.017</v>
+        <v>-0.014</v>
       </c>
       <c r="G43">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="H43">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="I43">
-        <v>-0.017</v>
+        <v>-0.014</v>
       </c>
       <c r="J43">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -4966,31 +4966,31 @@
         <v>18</v>
       </c>
       <c r="B48">
-        <v>60.891</v>
+        <v>60.89</v>
       </c>
       <c r="C48">
-        <v>60.875</v>
+        <v>60.873</v>
       </c>
       <c r="D48">
         <v>60.878</v>
       </c>
       <c r="E48">
-        <v>60.859</v>
+        <v>60.855</v>
       </c>
       <c r="F48">
-        <v>60.902</v>
+        <v>60.899</v>
       </c>
       <c r="G48">
-        <v>60.881</v>
+        <v>60.879</v>
       </c>
       <c r="H48">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="I48">
-        <v>60.859</v>
+        <v>60.855</v>
       </c>
       <c r="J48">
-        <v>60.902</v>
+        <v>60.899</v>
       </c>
     </row>
     <row r="49" spans="1:10">
